--- a/population.xlsx
+++ b/population.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/Report projektno/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/COZ/Projektno2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B97E57-2A8E-0D4E-A21E-E9517143CC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F28DD7-FCE7-614A-A37A-287C4BB498CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,9 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/population.xlsx
+++ b/population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/R trainings various/COZ/Projektno2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tijanablagojev/Desktop/R trainings various/Projektno sufinansiranje/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F28DD7-FCE7-614A-A37A-287C4BB498CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A3362F-1208-4447-A3FA-6A095B89D3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -870,9 +870,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -887,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16991</v>
+        <v>13450</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -895,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26522</v>
+        <v>22339</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -903,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51863</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -911,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20151</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -919,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28929</v>
+        <v>23383</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -927,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>46225</v>
+        <v>41693</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -935,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18792</v>
+        <v>17153</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -943,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12307</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -951,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14405</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -959,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>55528</v>
+        <v>48667</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -967,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33321</v>
+        <v>26620</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -975,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13418</v>
+        <v>11631</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -983,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26022</v>
+        <v>23684</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -991,7 +996,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11760</v>
+        <v>10273</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -999,7 +1004,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37351</v>
+        <v>30968</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1007,7 +1012,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17367</v>
+        <v>14445</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1015,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12126</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1023,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15726</v>
+        <v>14009</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1031,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1659440</v>
+        <v>1685563</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1039,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11754</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1047,7 +1052,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28883</v>
+        <v>24788</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1055,7 +1060,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11104</v>
+        <v>9442</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1063,7 +1068,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12994</v>
+        <v>10373</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,7 +1076,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>48615</v>
+        <v>41280</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1079,7 +1084,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8129</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1087,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>16317</v>
+        <v>13673</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,7 +1100,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>18067</v>
+        <v>42634</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1103,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115337</v>
+        <v>106453</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1111,7 +1116,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>14745</v>
+        <v>14675</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1119,7 +1124,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9476</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1127,7 +1132,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>11398</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1135,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1663</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1143,7 +1148,7 @@
         <v>153</v>
       </c>
       <c r="B34">
-        <v>32301</v>
+        <v>29822</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1151,7 +1156,7 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>30645</v>
+        <v>25663</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1159,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>23191</v>
+        <v>18824</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1167,7 +1172,7 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>10118</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1175,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>18463</v>
+        <v>15968</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1183,7 +1188,7 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>8389</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1191,7 +1196,7 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>8331</v>
+        <v>6716</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1199,7 +1204,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>44406</v>
+        <v>39244</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,7 +1212,7 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <v>47433</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1215,7 +1220,7 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <v>10866</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1223,7 +1228,7 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <v>31963</v>
+        <v>27767</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1231,7 +1236,7 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <v>71852</v>
+        <v>65180</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1239,7 +1244,7 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <v>25343</v>
+        <v>20520</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1247,7 +1252,7 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <v>59453</v>
+        <v>49691</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1255,7 +1260,7 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <v>20635</v>
+        <v>18002</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1263,7 +1268,7 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <v>14237</v>
+        <v>11838</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1271,7 +1276,7 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <v>31491</v>
+        <v>25459</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1279,7 +1284,7 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>13129</v>
+        <v>11249</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1287,7 +1292,7 @@
         <v>49</v>
       </c>
       <c r="B52">
-        <v>12090</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1295,7 +1300,7 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <v>13285</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1303,7 +1308,7 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <v>25274</v>
+        <v>21496</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1311,7 +1316,7 @@
         <v>52</v>
       </c>
       <c r="B55">
-        <v>33722</v>
+        <v>28284</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1319,7 +1324,7 @@
         <v>53</v>
       </c>
       <c r="B56">
-        <v>179417</v>
+        <v>171628</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1327,7 +1332,7 @@
         <v>54</v>
       </c>
       <c r="B57">
-        <v>125488</v>
+        <v>111491</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1335,7 +1340,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>17295</v>
+        <v>14569</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1343,7 +1348,7 @@
         <v>56</v>
       </c>
       <c r="B59">
-        <v>128752</v>
+        <v>114331</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1351,7 +1356,7 @@
         <v>57</v>
       </c>
       <c r="B60">
-        <v>15516</v>
+        <v>12126</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1359,7 +1364,7 @@
         <v>58</v>
       </c>
       <c r="B61">
-        <v>43101</v>
+        <v>35940</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1367,7 +1372,7 @@
         <v>59</v>
       </c>
       <c r="B62">
-        <v>19213</v>
+        <v>15905</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1375,7 +1380,7 @@
         <v>60</v>
       </c>
       <c r="B63">
-        <v>15475</v>
+        <v>13871</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1383,7 +1388,7 @@
         <v>61</v>
       </c>
       <c r="B64">
-        <v>7837</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1391,7 +1396,7 @@
         <v>62</v>
       </c>
       <c r="B65">
-        <v>58622</v>
+        <v>55513</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1399,7 +1404,7 @@
         <v>63</v>
       </c>
       <c r="B66">
-        <v>22000</v>
+        <v>18268</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1407,7 +1412,7 @@
         <v>64</v>
       </c>
       <c r="B67">
-        <v>144206</v>
+        <v>124889</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1415,7 +1420,7 @@
         <v>65</v>
       </c>
       <c r="B68">
-        <v>12754</v>
+        <v>10736</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1423,7 +1428,7 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <v>14469</v>
+        <v>12272</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1431,7 +1436,7 @@
         <v>67</v>
       </c>
       <c r="B70">
-        <v>79327</v>
+        <v>73083</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1439,7 +1444,7 @@
         <v>68</v>
       </c>
       <c r="B71">
-        <v>20897</v>
+        <v>17090</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1447,7 +1452,7 @@
         <v>69</v>
       </c>
       <c r="B72">
-        <v>18686</v>
+        <v>14663</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1455,7 +1460,7 @@
         <v>70</v>
       </c>
       <c r="B73">
-        <v>12031</v>
+        <v>10123</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1463,7 +1468,7 @@
         <v>71</v>
       </c>
       <c r="B74">
-        <v>12482</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1471,7 +1476,7 @@
         <v>72</v>
       </c>
       <c r="B75">
-        <v>11458</v>
+        <v>9433</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1479,7 +1484,7 @@
         <v>73</v>
       </c>
       <c r="B76">
-        <v>85969</v>
+        <v>82360</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1487,7 +1492,7 @@
         <v>74</v>
       </c>
       <c r="B77">
-        <v>7438</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1495,7 +1500,7 @@
         <v>75</v>
       </c>
       <c r="B78">
-        <v>13968</v>
+        <v>12050</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1503,7 +1508,7 @@
         <v>76</v>
       </c>
       <c r="B79">
-        <v>14335</v>
+        <v>12065</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1511,7 +1516,7 @@
         <v>77</v>
       </c>
       <c r="B80">
-        <v>53096</v>
+        <v>49020</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1519,7 +1524,7 @@
         <v>78</v>
       </c>
       <c r="B81">
-        <v>37056</v>
+        <v>29062</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1527,7 +1532,7 @@
         <v>79</v>
       </c>
       <c r="B82">
-        <v>260237</v>
+        <v>249816</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1535,7 +1540,7 @@
         <v>80</v>
       </c>
       <c r="B83">
-        <v>10272</v>
+        <v>8227</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1543,7 +1548,7 @@
         <v>81</v>
       </c>
       <c r="B84">
-        <v>16638</v>
+        <v>13573</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1551,7 +1556,7 @@
         <v>82</v>
       </c>
       <c r="B85">
-        <v>23925</v>
+        <v>20075</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1559,7 +1564,7 @@
         <v>83</v>
       </c>
       <c r="B86">
-        <v>11269</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1567,7 +1572,7 @@
         <v>84</v>
       </c>
       <c r="B87">
-        <v>100410</v>
+        <v>107859</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1575,7 +1580,7 @@
         <v>85</v>
       </c>
       <c r="B88">
-        <v>341625</v>
+        <v>367121</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1583,7 +1588,7 @@
         <v>86</v>
       </c>
       <c r="B89">
-        <v>72524</v>
+        <v>69376</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1591,7 +1596,7 @@
         <v>87</v>
       </c>
       <c r="B90">
-        <v>30154</v>
+        <v>25159</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1599,7 +1604,7 @@
         <v>88</v>
       </c>
       <c r="B91">
-        <v>10440</v>
+        <v>9476</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1607,7 +1612,7 @@
         <v>89</v>
       </c>
       <c r="B92">
-        <v>12536</v>
+        <v>10011</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1615,7 +1620,7 @@
         <v>90</v>
       </c>
       <c r="B93">
-        <v>123414</v>
+        <v>115910</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1623,7 +1628,7 @@
         <v>91</v>
       </c>
       <c r="B94">
-        <v>53486</v>
+        <v>54462</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1631,7 +1636,7 @@
         <v>92</v>
       </c>
       <c r="B95">
-        <v>54242</v>
+        <v>46103</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1639,7 +1644,7 @@
         <v>93</v>
       </c>
       <c r="B96">
-        <v>19720</v>
+        <v>18439</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1647,7 +1652,7 @@
         <v>94</v>
       </c>
       <c r="B97">
-        <v>31259</v>
+        <v>26186</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1655,7 +1660,7 @@
         <v>95</v>
       </c>
       <c r="B98">
-        <v>57928</v>
+        <v>49894</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1663,7 +1668,7 @@
         <v>96</v>
       </c>
       <c r="B99">
-        <v>11336</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1671,7 +1676,7 @@
         <v>97</v>
       </c>
       <c r="B100">
-        <v>75334</v>
+        <v>57132</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1679,7 +1684,7 @@
         <v>98</v>
       </c>
       <c r="B101">
-        <v>29638</v>
+        <v>26060</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1687,7 +1692,7 @@
         <v>99</v>
       </c>
       <c r="B102">
-        <v>3080</v>
+        <v>35097</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1695,7 +1700,7 @@
         <v>100</v>
       </c>
       <c r="B103">
-        <v>27133</v>
+        <v>23789</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1703,7 +1708,7 @@
         <v>101</v>
       </c>
       <c r="B104">
-        <v>37059</v>
+        <v>32698</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1711,7 +1716,7 @@
         <v>102</v>
       </c>
       <c r="B105">
-        <v>44419</v>
+        <v>38291</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1719,7 +1724,7 @@
         <v>103</v>
       </c>
       <c r="B106">
-        <v>11503</v>
+        <v>9760</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1727,7 +1732,7 @@
         <v>104</v>
       </c>
       <c r="B107">
-        <v>24678</v>
+        <v>21659</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1735,7 +1740,7 @@
         <v>105</v>
       </c>
       <c r="B108">
-        <v>9150</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1743,7 +1748,7 @@
         <v>106</v>
       </c>
       <c r="B109">
-        <v>11055</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1751,7 +1756,7 @@
         <v>107</v>
       </c>
       <c r="B110">
-        <v>54339</v>
+        <v>48966</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1759,7 +1764,7 @@
         <v>108</v>
       </c>
       <c r="B111">
-        <v>115884</v>
+        <v>106066</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1767,7 +1772,7 @@
         <v>109</v>
       </c>
       <c r="B112">
-        <v>13267</v>
+        <v>10622</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1775,7 +1780,7 @@
         <v>110</v>
       </c>
       <c r="B113">
-        <v>23316</v>
+        <v>18113</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1783,7 +1788,7 @@
         <v>111</v>
       </c>
       <c r="B114">
-        <v>34188</v>
+        <v>28202</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1791,7 +1796,7 @@
         <v>112</v>
       </c>
       <c r="B115">
-        <v>26392</v>
+        <v>24951</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1799,7 +1804,7 @@
         <v>113</v>
       </c>
       <c r="B116">
-        <v>108209</v>
+        <v>98677</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1807,7 +1812,7 @@
         <v>114</v>
       </c>
       <c r="B117">
-        <v>50284</v>
+        <v>42492</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1815,7 +1820,7 @@
         <v>115</v>
       </c>
       <c r="B118">
-        <v>16021</v>
+        <v>13325</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1823,7 +1828,7 @@
         <v>116</v>
       </c>
       <c r="B119">
-        <v>85903</v>
+        <v>71521</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1831,7 +1836,7 @@
         <v>117</v>
       </c>
       <c r="B120">
-        <v>16317</v>
+        <v>14478</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1839,7 +1844,7 @@
         <v>118</v>
       </c>
       <c r="B121">
-        <v>79940</v>
+        <v>73053</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1847,7 +1852,7 @@
         <v>119</v>
       </c>
       <c r="B122">
-        <v>8750</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1855,7 +1860,7 @@
         <v>120</v>
       </c>
       <c r="B123">
-        <v>65792</v>
+        <v>62645</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1863,7 +1868,7 @@
         <v>121</v>
       </c>
       <c r="B124">
-        <v>141554</v>
+        <v>124679</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1871,7 +1876,7 @@
         <v>122</v>
       </c>
       <c r="B125">
-        <v>20319</v>
+        <v>16995</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1879,7 +1884,7 @@
         <v>123</v>
       </c>
       <c r="B126">
-        <v>23551</v>
+        <v>20568</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1887,7 +1892,7 @@
         <v>124</v>
       </c>
       <c r="B127">
-        <v>14249</v>
+        <v>10891</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1895,7 +1900,7 @@
         <v>125</v>
       </c>
       <c r="B128">
-        <v>28287</v>
+        <v>25932</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1903,7 +1908,7 @@
         <v>126</v>
       </c>
       <c r="B129">
-        <v>15738</v>
+        <v>14111</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1911,7 +1916,7 @@
         <v>127</v>
       </c>
       <c r="B130">
-        <v>22329</v>
+        <v>19221</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1919,7 +1924,7 @@
         <v>128</v>
       </c>
       <c r="B131">
-        <v>5091</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1927,7 +1932,7 @@
         <v>129</v>
       </c>
       <c r="B132">
-        <v>42966</v>
+        <v>36138</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1935,7 +1940,7 @@
         <v>130</v>
       </c>
       <c r="B133">
-        <v>31155</v>
+        <v>33474</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1943,7 +1948,7 @@
         <v>131</v>
       </c>
       <c r="B134">
-        <v>29101</v>
+        <v>25889</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1951,7 +1956,7 @@
         <v>132</v>
       </c>
       <c r="B135">
-        <v>78040</v>
+        <v>63702</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1959,7 +1964,7 @@
         <v>133</v>
       </c>
       <c r="B136">
-        <v>90312</v>
+        <v>82541</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1967,7 +1972,7 @@
         <v>134</v>
       </c>
       <c r="B137">
-        <v>17966</v>
+        <v>14382</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1975,7 +1980,7 @@
         <v>135</v>
       </c>
       <c r="B138">
-        <v>40902</v>
+        <v>35766</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -1983,7 +1988,7 @@
         <v>136</v>
       </c>
       <c r="B139">
-        <v>17610</v>
+        <v>15947</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -1991,7 +1996,7 @@
         <v>137</v>
       </c>
       <c r="B140">
-        <v>20871</v>
+        <v>17597</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -1999,7 +2004,7 @@
         <v>138</v>
       </c>
       <c r="B141">
-        <v>17462</v>
+        <v>14509</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2007,7 +2012,7 @@
         <v>139</v>
       </c>
       <c r="B142">
-        <v>29893</v>
+        <v>25849</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2015,7 +2020,7 @@
         <v>140</v>
       </c>
       <c r="B143">
-        <v>83524</v>
+        <v>74876</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2023,7 +2028,7 @@
         <v>141</v>
       </c>
       <c r="B144">
-        <v>42092</v>
+        <v>36957</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2031,7 +2036,7 @@
         <v>142</v>
       </c>
       <c r="B145">
-        <v>27527</v>
+        <v>25181</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2039,7 +2044,7 @@
         <v>143</v>
       </c>
       <c r="B146">
-        <v>52026</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2047,7 +2052,7 @@
         <v>144</v>
       </c>
       <c r="B147">
-        <v>26134</v>
+        <v>24036</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2055,7 +2060,7 @@
         <v>145</v>
       </c>
       <c r="B148">
-        <v>11380</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2063,7 +2068,7 @@
         <v>146</v>
       </c>
       <c r="B149">
-        <v>12737</v>
+        <v>9855</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2071,7 +2076,7 @@
         <v>147</v>
       </c>
       <c r="B150">
-        <v>59461</v>
+        <v>48621</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2079,7 +2084,7 @@
         <v>148</v>
       </c>
       <c r="B151">
-        <v>16841</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2087,7 +2092,7 @@
         <v>149</v>
       </c>
       <c r="B152">
-        <v>16368</v>
+        <v>13941</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2095,7 +2100,7 @@
         <v>150</v>
       </c>
       <c r="B153">
-        <v>123362</v>
+        <v>106562</v>
       </c>
     </row>
   </sheetData>
